--- a/실무_엑셀_예제_파일/Chapter07/07-008.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-008.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C674AF-459B-404C-8B8D-6DFD0840BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2AF5E4-CBCC-4E57-8039-286F4F7FB258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="0" windowWidth="18588" windowHeight="13152" xr2:uid="{003C1D6F-C71D-45BC-AB14-AACAD3555D4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{003C1D6F-C71D-45BC-AB14-AACAD3555D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="원인터내셔널" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -607,23 +598,23 @@
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G5" sqref="G5:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="3" width="10.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
-    <col min="5" max="5" width="30.09765625" customWidth="1"/>
-    <col min="6" max="7" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" customWidth="1"/>
+    <col min="6" max="7" width="17.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="str">
         <f ca="1">"원인터내셔널 직원 목록 ("&amp;TEXT(TODAY(),"yyyy년 mm월")&amp;")"</f>
-        <v>원인터내셔널 직원 목록 (2021년 08월)</v>
+        <v>원인터내셔널 직원 목록 (2025년 04월)</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -631,7 +622,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -651,7 +642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -664,10 +655,16 @@
       <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F5" s="3" t="str">
+        <f>LEFT(E5, FIND("@",E5)-1)</f>
+        <v>Stephen.Choi</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f>RIGHT(E5, LEN(E5)-FIND("@", E5))</f>
+        <v>OneGlobal.com</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -680,10 +677,16 @@
       <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F6" s="3" t="str">
+        <f t="shared" ref="F6:F16" si="0">LEFT(E6, FIND("@",E6)-1)</f>
+        <v>JH.Park</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" ref="G6:G16" si="1">RIGHT(E6, LEN(E6)-FIND("@", E6))</f>
+        <v>OneKorea.com</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -696,10 +699,16 @@
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>John.Kim</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneGlobal.com</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -712,10 +721,16 @@
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MinHyung.Kim</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneGlobal.com</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -728,10 +743,16 @@
       <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Robert.Lee</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneKorea.com</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -744,10 +765,16 @@
       <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sara.Jeong</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneGlobal.com</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -760,10 +787,16 @@
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EunSae.Lee</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneGlobal.com</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -776,10 +809,16 @@
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Jenny.Park</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneKorea.com</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -792,10 +831,16 @@
       <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Julia.Park</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneGlobal.com</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -808,10 +853,16 @@
       <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>SuHyeon.Park</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneGlobal.com</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -824,10 +875,16 @@
       <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>James.Kim</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneKorea.com</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -840,8 +897,14 @@
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sean.Lee</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>OneKorea.com</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
